--- a/biology/Histoire de la zoologie et de la botanique/Victor_von_Plessen/Victor_von_Plessen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Victor_von_Plessen/Victor_von_Plessen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Victor von Plessen né le 23 octobre 1900 au manoir de Sierhagen (Schleswig-Holstein) et mort le 16 décembre 1980 au manoir de Wahlstorf (arrondissement du Holstein-de-l'Est), est un explorateur et ornithologue allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après son service en 1917-1918 au régiment des Gardes du Corps impériaux, Victor von Plessen entreprend des études d'art et d'histoire de l'art à Berlin et à Munich. Il organise et prend part en 1924-1925 à une expédition en Malaisie, ainsi qu'en 1927-1928. Après celle de 1930-1931 à Bali, il publie un film intitulé Insel der Dämonen (L'Île des démons), puis un autre après un voyage en 1934-1935 à Bornéo, intitulé Die Kopfjäger von Borneo (Les Chasseurs de têtes de Bornéo). Il épouse Marie-Izabel Rückert von Jenisch, fille du baron Martin Rücker von Jenisch, diplomate (1861-1924) et arrière-petite-fille de Martin Johann Jenisch, et fait paraître en 1937-1938 un film documentaire sur la Malaisie sur commande du musée d'anthropologie.
 Plessen a aussi découvert une cinquantaine de sous-espèces malaisiennes d'oiseaux qui portent le nom de Plesseni et redécouvert l'étourneau de Bali que l'on croyait éteint.
@@ -544,7 +558,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor von Plessen appartient à l'une des familles les plus anciennes du Holstein et du Mecklembourg. Les Plessen sont divisés en plusieurs branches. Il descend de celle des Scheel-Plessen. Son grand-père maternel (ses parents étaient cousins germains) est le comte Carl von Scheel-Plessen (1811-1892), propriétaire terrien, premier haut président de la province du Schleswig-Holstein et membre de la chambre des seigneurs de Prusse.
 </t>
